--- a/modified_global.xlsx
+++ b/modified_global.xlsx
@@ -1043,13 +1043,13 @@
     <t>10:1 (CD19-) E:T</t>
   </si>
   <si>
-    <t>01:01:00</t>
-  </si>
-  <si>
-    <t>05:01:00</t>
-  </si>
-  <si>
-    <t>10:01:00</t>
+    <t>CD19+ 1:1</t>
+  </si>
+  <si>
+    <t>CD19+ 5:1</t>
+  </si>
+  <si>
+    <t>CD19+ 10:1</t>
   </si>
   <si>
     <t>IFNg 5:1 (CD19+) (pg/mL) E:T Ratio</t>
